--- a/salary_export.xlsx
+++ b/salary_export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STT</t>
   </si>
@@ -38,22 +38,52 @@
     <t>Ngày chấm</t>
   </si>
   <si>
-    <t>ML1654746498</t>
+    <t>ML1656551390</t>
   </si>
   <si>
     <t>Trần Mai Phương</t>
   </si>
   <si>
-    <t>2022-06-09</t>
-  </si>
-  <si>
-    <t>ML1599471056</t>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>ML1656490577</t>
   </si>
   <si>
     <t>Trần Diễm My</t>
   </si>
   <si>
-    <t>2020-09-07</t>
+    <t>2022-06-29</t>
+  </si>
+  <si>
+    <t>ML1656490547</t>
+  </si>
+  <si>
+    <t>ML1656490259</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Thông</t>
+  </si>
+  <si>
+    <t>ML1656490174</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Tính</t>
+  </si>
+  <si>
+    <t>ML1655439208</t>
+  </si>
+  <si>
+    <t>Trần Thị Bích Nhi</t>
+  </si>
+  <si>
+    <t>2022-06-17</t>
+  </si>
+  <si>
+    <t>ML1655439125</t>
+  </si>
+  <si>
+    <t>ML1655439023</t>
   </si>
   <si>
     <t>ML1598806041</t>
@@ -98,9 +128,6 @@
     <t>ML1570267671</t>
   </si>
   <si>
-    <t>Nguyễn Minh Thông</t>
-  </si>
-  <si>
     <t>2019-12-05</t>
   </si>
   <si>
@@ -114,9 +141,6 @@
   </si>
   <si>
     <t>ML1570075175</t>
-  </si>
-  <si>
-    <t>Trần Thị Bích Nhi</t>
   </si>
   <si>
     <t>ML1570075152</t>
@@ -458,7 +482,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,13 +524,13 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>8120000</v>
+        <v>9240000</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2">
-        <v>7982400</v>
+        <v>11614800</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -523,13 +547,13 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>8050000</v>
+        <v>7130000</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>7204750</v>
+        <v>7941350</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -543,19 +567,19 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>3450000</v>
+        <v>6670000</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>3087750</v>
+        <v>5969650</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -563,22 +587,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>9800000</v>
+        <v>18600000</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>10621000</v>
+        <v>18522000</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -586,22 +610,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>4600000</v>
+        <v>9610000</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F6">
-        <v>4117000</v>
+        <v>12220950</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -609,22 +633,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>9240000</v>
+        <v>7590000</v>
       </c>
       <c r="E7">
         <v>29</v>
       </c>
       <c r="F7">
-        <v>9074800</v>
+        <v>6793050</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -632,22 +656,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>7590000</v>
+        <v>19800000</v>
       </c>
       <c r="E8">
         <v>29</v>
       </c>
       <c r="F8">
-        <v>8398050</v>
+        <v>21626000</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -655,22 +679,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>8050000</v>
+        <v>19800000</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9">
-        <v>8354750</v>
+        <v>21626000</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -678,22 +702,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>13800000</v>
+        <v>3450000</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>13186000</v>
+        <v>3087750</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -701,22 +725,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>9800000</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>10621000</v>
+      </c>
+      <c r="G11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11">
-        <v>19800000</v>
-      </c>
-      <c r="E11">
-        <v>29</v>
-      </c>
-      <c r="F11">
-        <v>20026000</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -724,22 +748,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>8050000</v>
+        <v>4600000</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>7354750</v>
+        <v>4117000</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -747,19 +771,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>5750000</v>
+        <v>9240000</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F13">
-        <v>3646250</v>
+        <v>9074800</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -770,22 +794,160 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>7590000</v>
+      </c>
+      <c r="E14">
+        <v>29</v>
+      </c>
+      <c r="F14">
+        <v>8398050</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>8050000</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>8354750</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>13800000</v>
+      </c>
+      <c r="E16">
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>13186000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>19800000</v>
+      </c>
+      <c r="E17">
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <v>20026000</v>
+      </c>
+      <c r="G17" t="s">
         <v>27</v>
       </c>
-      <c r="D14">
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>8050000</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>7354750</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>5750000</v>
+      </c>
+      <c r="E19">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>3646250</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
         <v>18600000</v>
       </c>
-      <c r="E14">
+      <c r="E20">
         <v>28</v>
       </c>
-      <c r="F14">
+      <c r="F20">
         <v>17407000</v>
       </c>
-      <c r="G14" t="s">
-        <v>31</v>
+      <c r="G20" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
